--- a/data/保险支出.xlsx
+++ b/data/保险支出.xlsx
@@ -5,15 +5,16 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\计科生活\大二\大数据实践赛\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\计科生活\大二\数据可视化赛道\Employment_Visualization_Spider\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A4F94AF-3519-4FA9-9460-C79138A58618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B35D3E-6753-4ED9-AFEC-7C55E7FA7057}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="44880" yWindow="6405" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14476" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>北京市</t>
   </si>
@@ -447,8 +448,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AF22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2610,4 +2611,1683 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07D9E06A-439A-4177-8BBD-3270A5E2CFFB}">
+  <dimension ref="A1:AF17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="AC21" sqref="AC21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="1" spans="1:32" ht="27.75" x14ac:dyDescent="0.4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>2006</v>
+      </c>
+      <c r="B2" s="1">
+        <v>12.07</v>
+      </c>
+      <c r="C2" s="1">
+        <v>3.69</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8.15</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2.64</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2.42</v>
+      </c>
+      <c r="G2" s="1">
+        <v>15.61</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.21</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="J2" s="1">
+        <v>26.11</v>
+      </c>
+      <c r="K2" s="1">
+        <v>17.79</v>
+      </c>
+      <c r="L2" s="1">
+        <v>6.17</v>
+      </c>
+      <c r="M2" s="1">
+        <v>8.0299999999999994</v>
+      </c>
+      <c r="N2" s="1">
+        <v>4.3899999999999997</v>
+      </c>
+      <c r="O2" s="1">
+        <v>2.2400000000000002</v>
+      </c>
+      <c r="P2" s="1">
+        <v>11.05</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>12.25</v>
+      </c>
+      <c r="R2" s="1">
+        <v>4.28</v>
+      </c>
+      <c r="S2" s="1">
+        <v>5.9</v>
+      </c>
+      <c r="T2" s="1">
+        <v>13.68</v>
+      </c>
+      <c r="U2" s="1">
+        <v>3.87</v>
+      </c>
+      <c r="V2" s="1">
+        <v>0.99</v>
+      </c>
+      <c r="W2" s="1">
+        <v>1.77</v>
+      </c>
+      <c r="X2" s="1">
+        <v>10.14</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z2" s="1">
+        <v>2.98</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AB2" s="1">
+        <v>5.43</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>3.92</v>
+      </c>
+      <c r="AD2" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="AF2" s="1">
+        <v>3.32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2007</v>
+      </c>
+      <c r="B3" s="1">
+        <v>10.6</v>
+      </c>
+      <c r="C3" s="1">
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="D3" s="1">
+        <v>10.71</v>
+      </c>
+      <c r="E3" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2.96</v>
+      </c>
+      <c r="G3" s="1">
+        <v>13.37</v>
+      </c>
+      <c r="H3" s="1">
+        <v>4.43</v>
+      </c>
+      <c r="I3" s="1">
+        <v>6.17</v>
+      </c>
+      <c r="J3" s="1">
+        <v>29.67</v>
+      </c>
+      <c r="K3" s="1">
+        <v>17.62</v>
+      </c>
+      <c r="L3" s="1">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="M3" s="1">
+        <v>6.46</v>
+      </c>
+      <c r="N3" s="1">
+        <v>4.1100000000000003</v>
+      </c>
+      <c r="O3" s="1">
+        <v>2.0099999999999998</v>
+      </c>
+      <c r="P3" s="1">
+        <v>13.47</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>11.48</v>
+      </c>
+      <c r="R3" s="1">
+        <v>4.6500000000000004</v>
+      </c>
+      <c r="S3" s="1">
+        <v>5.77</v>
+      </c>
+      <c r="T3" s="1">
+        <v>12.48</v>
+      </c>
+      <c r="U3" s="1">
+        <v>3.57</v>
+      </c>
+      <c r="V3" s="1">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="W3" s="1">
+        <v>1.91</v>
+      </c>
+      <c r="X3" s="1">
+        <v>13.43</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>2.12</v>
+      </c>
+      <c r="Z3" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="AB3" s="1">
+        <v>7.38</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>2.6</v>
+      </c>
+      <c r="AD3" s="1">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>0.82</v>
+      </c>
+      <c r="AF3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>2008</v>
+      </c>
+      <c r="B4" s="1">
+        <v>13.48</v>
+      </c>
+      <c r="C4" s="1">
+        <v>5.0199999999999996</v>
+      </c>
+      <c r="D4" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E4" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="F4" s="1">
+        <v>3.19</v>
+      </c>
+      <c r="G4" s="1">
+        <v>13.87</v>
+      </c>
+      <c r="H4" s="1">
+        <v>5.74</v>
+      </c>
+      <c r="I4" s="1">
+        <v>5.41</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44.3</v>
+      </c>
+      <c r="K4" s="1">
+        <v>27.47</v>
+      </c>
+      <c r="L4" s="1">
+        <v>9.89</v>
+      </c>
+      <c r="M4" s="1">
+        <v>7.16</v>
+      </c>
+      <c r="N4" s="1">
+        <v>3.98</v>
+      </c>
+      <c r="O4" s="1">
+        <v>2.02</v>
+      </c>
+      <c r="P4" s="1">
+        <v>14.38</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>12.79</v>
+      </c>
+      <c r="R4" s="1">
+        <v>8.3800000000000008</v>
+      </c>
+      <c r="S4" s="1">
+        <v>6.6</v>
+      </c>
+      <c r="T4" s="1">
+        <v>13.49</v>
+      </c>
+      <c r="U4" s="1">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="V4" s="1">
+        <v>1.74</v>
+      </c>
+      <c r="W4" s="1">
+        <v>2.48</v>
+      </c>
+      <c r="X4" s="1">
+        <v>11.03</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>2.08</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>6.02</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>3.45</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>0.93</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>7.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>2009</v>
+      </c>
+      <c r="B5" s="1">
+        <v>17.829999999999998</v>
+      </c>
+      <c r="C5" s="1">
+        <v>15.56</v>
+      </c>
+      <c r="D5" s="1">
+        <v>24.21</v>
+      </c>
+      <c r="E5" s="1">
+        <v>6.16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="G5" s="1">
+        <v>21.64</v>
+      </c>
+      <c r="H5" s="1">
+        <v>8.36</v>
+      </c>
+      <c r="I5" s="1">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="J5" s="1">
+        <v>54.69</v>
+      </c>
+      <c r="K5" s="1">
+        <v>36.26</v>
+      </c>
+      <c r="L5" s="1">
+        <v>17.59</v>
+      </c>
+      <c r="M5" s="1">
+        <v>11.48</v>
+      </c>
+      <c r="N5" s="1">
+        <v>4.3</v>
+      </c>
+      <c r="O5" s="1">
+        <v>2.84</v>
+      </c>
+      <c r="P5" s="1">
+        <v>22.23</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="R5" s="1">
+        <v>8.86</v>
+      </c>
+      <c r="S5" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="T5" s="1">
+        <v>18.059999999999999</v>
+      </c>
+      <c r="U5" s="1">
+        <v>5.27</v>
+      </c>
+      <c r="V5" s="1">
+        <v>1.98</v>
+      </c>
+      <c r="W5" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="X5" s="1">
+        <v>13.72</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>5.42</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>0.45</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>6.06</v>
+      </c>
+      <c r="AD5" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="AF5" s="1">
+        <v>10.119999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>2010</v>
+      </c>
+      <c r="B6" s="1">
+        <v>25.09</v>
+      </c>
+      <c r="C6" s="1">
+        <v>13.53</v>
+      </c>
+      <c r="D6" s="1">
+        <v>23.51</v>
+      </c>
+      <c r="E6" s="1">
+        <v>6.65</v>
+      </c>
+      <c r="F6" s="1">
+        <v>4.66</v>
+      </c>
+      <c r="G6" s="1">
+        <v>16.309999999999999</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.85</v>
+      </c>
+      <c r="I6" s="1">
+        <v>16.37</v>
+      </c>
+      <c r="J6" s="1">
+        <v>60.71</v>
+      </c>
+      <c r="K6" s="1">
+        <v>37.380000000000003</v>
+      </c>
+      <c r="L6" s="1">
+        <v>23.39</v>
+      </c>
+      <c r="M6" s="1">
+        <v>9.57</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5.58</v>
+      </c>
+      <c r="O6" s="1">
+        <v>4.71</v>
+      </c>
+      <c r="P6" s="1">
+        <v>31.26</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>14.82</v>
+      </c>
+      <c r="R6" s="1">
+        <v>8.4</v>
+      </c>
+      <c r="S6" s="1">
+        <v>7.53</v>
+      </c>
+      <c r="T6" s="1">
+        <v>30.96</v>
+      </c>
+      <c r="U6" s="1">
+        <v>6.31</v>
+      </c>
+      <c r="V6" s="1">
+        <v>1.75</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4.93</v>
+      </c>
+      <c r="X6" s="1">
+        <v>17.05</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>5.29</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>6.5</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>0.78</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>11.83</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>7.46</v>
+      </c>
+      <c r="AD6" s="1">
+        <v>0.98</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>1.07</v>
+      </c>
+      <c r="AF6" s="1">
+        <v>13.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>2011</v>
+      </c>
+      <c r="B7" s="1">
+        <v>27.68</v>
+      </c>
+      <c r="C7" s="1">
+        <v>14.56</v>
+      </c>
+      <c r="D7" s="1">
+        <v>16.78</v>
+      </c>
+      <c r="E7" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5.8</v>
+      </c>
+      <c r="G7" s="1">
+        <v>19.3</v>
+      </c>
+      <c r="H7" s="1">
+        <v>6.08</v>
+      </c>
+      <c r="I7" s="1">
+        <v>5.69</v>
+      </c>
+      <c r="J7" s="1">
+        <v>61.84</v>
+      </c>
+      <c r="K7" s="1">
+        <v>69.959999999999994</v>
+      </c>
+      <c r="L7" s="1">
+        <v>33.07</v>
+      </c>
+      <c r="M7" s="1">
+        <v>6.51</v>
+      </c>
+      <c r="N7" s="1">
+        <v>6.33</v>
+      </c>
+      <c r="O7" s="1">
+        <v>4.54</v>
+      </c>
+      <c r="P7" s="1">
+        <v>25.87</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>13.52</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5.82</v>
+      </c>
+      <c r="S7" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="T7" s="1">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="U7" s="1">
+        <v>5.94</v>
+      </c>
+      <c r="V7" s="1">
+        <v>1.61</v>
+      </c>
+      <c r="W7" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="X7" s="1">
+        <v>17.21</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>3.43</v>
+      </c>
+      <c r="Z7" s="1">
+        <v>2.59</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>0.63</v>
+      </c>
+      <c r="AB7" s="1">
+        <v>5.16</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>3.3</v>
+      </c>
+      <c r="AD7" s="1">
+        <v>0.42</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>0.95</v>
+      </c>
+      <c r="AF7" s="1">
+        <v>19.829999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>2012</v>
+      </c>
+      <c r="B8" s="1">
+        <v>28.94</v>
+      </c>
+      <c r="C8" s="1">
+        <v>12.8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>15.7</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4.96</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4.4800000000000004</v>
+      </c>
+      <c r="G8" s="1">
+        <v>16.98</v>
+      </c>
+      <c r="H8" s="1">
+        <v>5.69</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7.35</v>
+      </c>
+      <c r="J8" s="1">
+        <v>69.47</v>
+      </c>
+      <c r="K8" s="1">
+        <v>57.35</v>
+      </c>
+      <c r="L8" s="1">
+        <v>36.92</v>
+      </c>
+      <c r="M8" s="1">
+        <v>14.27</v>
+      </c>
+      <c r="N8" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="O8" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="P8" s="1">
+        <v>35.35</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>14.79</v>
+      </c>
+      <c r="R8" s="1">
+        <v>8.44</v>
+      </c>
+      <c r="S8" s="1">
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="T8" s="1">
+        <v>20.69</v>
+      </c>
+      <c r="U8" s="1">
+        <v>6.36</v>
+      </c>
+      <c r="V8" s="1">
+        <v>2.54</v>
+      </c>
+      <c r="W8" s="1">
+        <v>3.54</v>
+      </c>
+      <c r="X8" s="1">
+        <v>24.85</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>6.49</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>0.31</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>4.95</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>3.03</v>
+      </c>
+      <c r="AD8" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>17.84</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>2013</v>
+      </c>
+      <c r="B9" s="1">
+        <v>32.11</v>
+      </c>
+      <c r="C9" s="1">
+        <v>13.3</v>
+      </c>
+      <c r="D9" s="1">
+        <v>19.41</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5.22</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6.34</v>
+      </c>
+      <c r="G9" s="1">
+        <v>15.95</v>
+      </c>
+      <c r="H9" s="1">
+        <v>10.36</v>
+      </c>
+      <c r="I9" s="1">
+        <v>7.96</v>
+      </c>
+      <c r="J9" s="1">
+        <v>77.87</v>
+      </c>
+      <c r="K9" s="1">
+        <v>62.85</v>
+      </c>
+      <c r="L9" s="1">
+        <v>43.45</v>
+      </c>
+      <c r="M9" s="1">
+        <v>18.96</v>
+      </c>
+      <c r="N9" s="1">
+        <v>9.67</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3.23</v>
+      </c>
+      <c r="P9" s="1">
+        <v>46.33</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>16.22</v>
+      </c>
+      <c r="R9" s="1">
+        <v>9.33</v>
+      </c>
+      <c r="S9" s="1">
+        <v>8.75</v>
+      </c>
+      <c r="T9" s="1">
+        <v>24.28</v>
+      </c>
+      <c r="U9" s="1">
+        <v>7.71</v>
+      </c>
+      <c r="V9" s="1">
+        <v>3.36</v>
+      </c>
+      <c r="W9" s="1">
+        <v>4.09</v>
+      </c>
+      <c r="X9" s="1">
+        <v>29.36</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>13.09</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>4.5199999999999996</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="AB9" s="1">
+        <v>16.38</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>2.65</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>0.94</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>1.54</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>16.239999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>2014</v>
+      </c>
+      <c r="B10" s="1">
+        <v>35.950000000000003</v>
+      </c>
+      <c r="C10" s="1">
+        <v>32.92</v>
+      </c>
+      <c r="D10" s="1">
+        <v>20.6</v>
+      </c>
+      <c r="E10" s="1">
+        <v>12.38</v>
+      </c>
+      <c r="F10" s="1">
+        <v>6.44</v>
+      </c>
+      <c r="G10" s="1">
+        <v>17.73</v>
+      </c>
+      <c r="H10" s="1">
+        <v>11.44</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6.99</v>
+      </c>
+      <c r="J10" s="1">
+        <v>83.59</v>
+      </c>
+      <c r="K10" s="1">
+        <v>70.16</v>
+      </c>
+      <c r="L10" s="1">
+        <v>50.2</v>
+      </c>
+      <c r="M10" s="1">
+        <v>17.63</v>
+      </c>
+      <c r="N10" s="1">
+        <v>9.99</v>
+      </c>
+      <c r="O10" s="1">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="P10" s="1">
+        <v>49.28</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>16.38</v>
+      </c>
+      <c r="R10" s="1">
+        <v>25.9</v>
+      </c>
+      <c r="S10" s="1">
+        <v>10.89</v>
+      </c>
+      <c r="T10" s="1">
+        <v>27.67</v>
+      </c>
+      <c r="U10" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="V10" s="1">
+        <v>4.1500000000000004</v>
+      </c>
+      <c r="W10" s="1">
+        <v>4.7699999999999996</v>
+      </c>
+      <c r="X10" s="1">
+        <v>41.12</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>9.77</v>
+      </c>
+      <c r="Z10" s="1">
+        <v>5.92</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="AB10" s="1">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>1.88</v>
+      </c>
+      <c r="AD10" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>3.79</v>
+      </c>
+      <c r="AF10" s="1">
+        <v>21.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>2015</v>
+      </c>
+      <c r="B11" s="1">
+        <v>42.78</v>
+      </c>
+      <c r="C11" s="1">
+        <v>31.65</v>
+      </c>
+      <c r="D11" s="1">
+        <v>27.91</v>
+      </c>
+      <c r="E11" s="1">
+        <v>13.79</v>
+      </c>
+      <c r="F11" s="1">
+        <v>9.77</v>
+      </c>
+      <c r="G11" s="1">
+        <v>18.2</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7.9</v>
+      </c>
+      <c r="I11" s="1">
+        <v>16.73</v>
+      </c>
+      <c r="J11" s="1">
+        <v>85.64</v>
+      </c>
+      <c r="K11" s="1">
+        <v>76.13</v>
+      </c>
+      <c r="L11" s="1">
+        <v>61.4</v>
+      </c>
+      <c r="M11" s="1">
+        <v>22.91</v>
+      </c>
+      <c r="N11" s="1">
+        <v>11.06</v>
+      </c>
+      <c r="O11" s="1">
+        <v>4.24</v>
+      </c>
+      <c r="P11" s="1">
+        <v>57.27</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>18.62</v>
+      </c>
+      <c r="R11" s="1">
+        <v>13.71</v>
+      </c>
+      <c r="S11" s="1">
+        <v>12.74</v>
+      </c>
+      <c r="T11" s="1">
+        <v>36.32</v>
+      </c>
+      <c r="U11" s="1">
+        <v>12.78</v>
+      </c>
+      <c r="V11" s="1">
+        <v>4.03</v>
+      </c>
+      <c r="W11" s="1">
+        <v>14.92</v>
+      </c>
+      <c r="X11" s="1">
+        <v>59.47</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>8.4600000000000009</v>
+      </c>
+      <c r="Z11" s="1">
+        <v>13.61</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="AB11" s="1">
+        <v>10.47</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>4.96</v>
+      </c>
+      <c r="AD11" s="1">
+        <v>3.96</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>29.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>2016</v>
+      </c>
+      <c r="B12" s="1">
+        <v>61.69</v>
+      </c>
+      <c r="C12" s="1">
+        <v>27.81</v>
+      </c>
+      <c r="D12" s="1">
+        <v>49.61</v>
+      </c>
+      <c r="E12" s="1">
+        <v>11.87</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13.81</v>
+      </c>
+      <c r="G12" s="1">
+        <v>35.01</v>
+      </c>
+      <c r="H12" s="1">
+        <v>11.73</v>
+      </c>
+      <c r="I12" s="1">
+        <v>18.28</v>
+      </c>
+      <c r="J12" s="1">
+        <v>93.38</v>
+      </c>
+      <c r="K12" s="1">
+        <v>109.77</v>
+      </c>
+      <c r="L12" s="1">
+        <v>68.7</v>
+      </c>
+      <c r="M12" s="1">
+        <v>26.68</v>
+      </c>
+      <c r="N12" s="1">
+        <v>16.82</v>
+      </c>
+      <c r="O12" s="1">
+        <v>3.74</v>
+      </c>
+      <c r="P12" s="1">
+        <v>69.959999999999994</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>22.56</v>
+      </c>
+      <c r="R12" s="1">
+        <v>23.89</v>
+      </c>
+      <c r="S12" s="1">
+        <v>16.75</v>
+      </c>
+      <c r="T12" s="1">
+        <v>95.3</v>
+      </c>
+      <c r="U12" s="1">
+        <v>19.25</v>
+      </c>
+      <c r="V12" s="1">
+        <v>4.5</v>
+      </c>
+      <c r="W12" s="1">
+        <v>15.8</v>
+      </c>
+      <c r="X12" s="1">
+        <v>75.61</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>13.91</v>
+      </c>
+      <c r="Z12" s="1">
+        <v>13.07</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AB12" s="1">
+        <v>11.75</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>3.29</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="AF12" s="1">
+        <v>29.66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>2017</v>
+      </c>
+      <c r="B13" s="1">
+        <v>65.849999999999994</v>
+      </c>
+      <c r="C13" s="1">
+        <v>50.7</v>
+      </c>
+      <c r="D13" s="1">
+        <v>27.11</v>
+      </c>
+      <c r="E13" s="1">
+        <v>12.31</v>
+      </c>
+      <c r="F13" s="1">
+        <v>7.34</v>
+      </c>
+      <c r="G13" s="1">
+        <v>26.63</v>
+      </c>
+      <c r="H13" s="1">
+        <v>12.05</v>
+      </c>
+      <c r="I13" s="1">
+        <v>17.190000000000001</v>
+      </c>
+      <c r="J13" s="1">
+        <v>98.48</v>
+      </c>
+      <c r="K13" s="1">
+        <v>99.95</v>
+      </c>
+      <c r="L13" s="1">
+        <v>63.31</v>
+      </c>
+      <c r="M13" s="1">
+        <v>25.21</v>
+      </c>
+      <c r="N13" s="1">
+        <v>16.57</v>
+      </c>
+      <c r="O13" s="1">
+        <v>3.79</v>
+      </c>
+      <c r="P13" s="1">
+        <v>65.209999999999994</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>19.760000000000002</v>
+      </c>
+      <c r="R13" s="1">
+        <v>20.98</v>
+      </c>
+      <c r="S13" s="1">
+        <v>16.47</v>
+      </c>
+      <c r="T13" s="1">
+        <v>71.47</v>
+      </c>
+      <c r="U13" s="1">
+        <v>15.16</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5.25</v>
+      </c>
+      <c r="W13" s="1">
+        <v>15.52</v>
+      </c>
+      <c r="X13" s="1">
+        <v>62.22</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>11.31</v>
+      </c>
+      <c r="Z13" s="1">
+        <v>11.38</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AB13" s="1">
+        <v>14.3</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>5.93</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>1.58</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>3.24</v>
+      </c>
+      <c r="AF13" s="1">
+        <v>27.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>2018</v>
+      </c>
+      <c r="B14" s="1">
+        <v>72.22</v>
+      </c>
+      <c r="C14" s="1">
+        <v>36.21</v>
+      </c>
+      <c r="D14" s="1">
+        <v>20.190000000000001</v>
+      </c>
+      <c r="E14" s="1">
+        <v>11.77</v>
+      </c>
+      <c r="F14" s="1">
+        <v>9.9</v>
+      </c>
+      <c r="G14" s="1">
+        <v>35.46</v>
+      </c>
+      <c r="H14" s="1">
+        <v>10.99</v>
+      </c>
+      <c r="I14" s="1">
+        <v>14.09</v>
+      </c>
+      <c r="J14" s="1">
+        <v>123.42</v>
+      </c>
+      <c r="K14" s="1">
+        <v>102.09</v>
+      </c>
+      <c r="L14" s="1">
+        <v>59.06</v>
+      </c>
+      <c r="M14" s="1">
+        <v>22.86</v>
+      </c>
+      <c r="N14" s="1">
+        <v>16.41</v>
+      </c>
+      <c r="O14" s="1">
+        <v>4.04</v>
+      </c>
+      <c r="P14" s="1">
+        <v>64.459999999999994</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>20.72</v>
+      </c>
+      <c r="R14" s="1">
+        <v>21.2</v>
+      </c>
+      <c r="S14" s="1">
+        <v>14.68</v>
+      </c>
+      <c r="T14" s="1">
+        <v>73.12</v>
+      </c>
+      <c r="U14" s="1">
+        <v>16.25</v>
+      </c>
+      <c r="V14" s="1">
+        <v>5.64</v>
+      </c>
+      <c r="W14" s="1">
+        <v>14.98</v>
+      </c>
+      <c r="X14" s="1">
+        <v>80.78</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>10.74</v>
+      </c>
+      <c r="Z14" s="1">
+        <v>11.09</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="AB14" s="1">
+        <v>14.18</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>5.65</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>3.56</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>3.02</v>
+      </c>
+      <c r="AF14" s="1">
+        <v>16.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>2019</v>
+      </c>
+      <c r="B15" s="1">
+        <v>92.74</v>
+      </c>
+      <c r="C15" s="1">
+        <v>34.07</v>
+      </c>
+      <c r="D15" s="1">
+        <v>24.7</v>
+      </c>
+      <c r="E15" s="1">
+        <v>14.39</v>
+      </c>
+      <c r="F15" s="1">
+        <v>12.28</v>
+      </c>
+      <c r="G15" s="1">
+        <v>36.81</v>
+      </c>
+      <c r="H15" s="1">
+        <v>15.76</v>
+      </c>
+      <c r="I15" s="1">
+        <v>24.5</v>
+      </c>
+      <c r="J15" s="1">
+        <v>127.1</v>
+      </c>
+      <c r="K15" s="1">
+        <v>115.75</v>
+      </c>
+      <c r="L15" s="1">
+        <v>187.02</v>
+      </c>
+      <c r="M15" s="1">
+        <v>51.17</v>
+      </c>
+      <c r="N15" s="1">
+        <v>19.96</v>
+      </c>
+      <c r="O15" s="1">
+        <v>6.57</v>
+      </c>
+      <c r="P15" s="1">
+        <v>77.69</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>48.48</v>
+      </c>
+      <c r="R15" s="1">
+        <v>25.67</v>
+      </c>
+      <c r="S15" s="1">
+        <v>15.91</v>
+      </c>
+      <c r="T15" s="1">
+        <v>112.65</v>
+      </c>
+      <c r="U15" s="1">
+        <v>20.65</v>
+      </c>
+      <c r="V15" s="1">
+        <v>7.37</v>
+      </c>
+      <c r="W15" s="1">
+        <v>57.21</v>
+      </c>
+      <c r="X15" s="1">
+        <v>102.87</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>12.25</v>
+      </c>
+      <c r="Z15" s="1">
+        <v>13.21</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="AB15" s="1">
+        <v>42.14</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>8.0399999999999991</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>5.04</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>4.8</v>
+      </c>
+      <c r="AF15" s="1">
+        <v>15.84</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>2020</v>
+      </c>
+      <c r="B16" s="1">
+        <v>159.1</v>
+      </c>
+      <c r="C16" s="1">
+        <v>33.44</v>
+      </c>
+      <c r="D16" s="1">
+        <v>41.11</v>
+      </c>
+      <c r="E16" s="1">
+        <v>34.93</v>
+      </c>
+      <c r="F16" s="1">
+        <v>22.99</v>
+      </c>
+      <c r="G16" s="1">
+        <v>110.15</v>
+      </c>
+      <c r="H16" s="1">
+        <v>39.71</v>
+      </c>
+      <c r="I16" s="1">
+        <v>37.42</v>
+      </c>
+      <c r="J16" s="1">
+        <v>141.83000000000001</v>
+      </c>
+      <c r="K16" s="1">
+        <v>188.95</v>
+      </c>
+      <c r="L16" s="1">
+        <v>154.34</v>
+      </c>
+      <c r="M16" s="1">
+        <v>39.78</v>
+      </c>
+      <c r="N16" s="1">
+        <v>66.87</v>
+      </c>
+      <c r="O16" s="1">
+        <v>21.07</v>
+      </c>
+      <c r="P16" s="1">
+        <v>134.01</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>90.55</v>
+      </c>
+      <c r="R16" s="1">
+        <v>53.36</v>
+      </c>
+      <c r="S16" s="1">
+        <v>36.06</v>
+      </c>
+      <c r="T16" s="1">
+        <v>238.6</v>
+      </c>
+      <c r="U16" s="1">
+        <v>47.8</v>
+      </c>
+      <c r="V16" s="1">
+        <v>14.18</v>
+      </c>
+      <c r="W16" s="1">
+        <v>46.51</v>
+      </c>
+      <c r="X16" s="1">
+        <v>134.37</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>24.51</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>40.630000000000003</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>0.53</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>90.65</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>17.62</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>9.35</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>10.28</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>22.3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>2021</v>
+      </c>
+      <c r="B17" s="1">
+        <v>150.6</v>
+      </c>
+      <c r="C17" s="1">
+        <v>33.75</v>
+      </c>
+      <c r="D17" s="1">
+        <v>35.11</v>
+      </c>
+      <c r="E17" s="1">
+        <v>25.58</v>
+      </c>
+      <c r="F17" s="1">
+        <v>19.91</v>
+      </c>
+      <c r="G17" s="1">
+        <v>83.99</v>
+      </c>
+      <c r="H17" s="1">
+        <v>29.78</v>
+      </c>
+      <c r="I17" s="1">
+        <v>22.7</v>
+      </c>
+      <c r="J17" s="1">
+        <v>121.41</v>
+      </c>
+      <c r="K17" s="1">
+        <v>137.22</v>
+      </c>
+      <c r="L17" s="1">
+        <v>75.98</v>
+      </c>
+      <c r="M17" s="1">
+        <v>26.54</v>
+      </c>
+      <c r="N17" s="1">
+        <v>45.14</v>
+      </c>
+      <c r="O17" s="1">
+        <v>20.48</v>
+      </c>
+      <c r="P17" s="1">
+        <v>102.36</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>64.61</v>
+      </c>
+      <c r="R17" s="1">
+        <v>70.45</v>
+      </c>
+      <c r="S17" s="1">
+        <v>28.35</v>
+      </c>
+      <c r="T17" s="1">
+        <v>150.34</v>
+      </c>
+      <c r="U17" s="1">
+        <v>27.95</v>
+      </c>
+      <c r="V17" s="1">
+        <v>11.56</v>
+      </c>
+      <c r="W17" s="1">
+        <v>18.91</v>
+      </c>
+      <c r="X17" s="1">
+        <v>71.760000000000005</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>24.53</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>28.03</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>0.87</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>30.07</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>11.3</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>2.38</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>11.39</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>16.98</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>